--- a/biology/Zoologie/Cuacuba/Cuacuba.xlsx
+++ b/biology/Zoologie/Cuacuba/Cuacuba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuacuba est un genre d'araignées aranéomorphes de la famille des Theridiosomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuacuba est un genre d'araignées aranéomorphes de la famille des Theridiosomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 21.0, 14/07/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 21.0, 14/07/2020) :
 Cuacuba mariana Prete, Cizauskas &amp; Brescovit, 2018
 Cuacuba morrodopilar Prete, Cizauskas &amp; Brescovit, 2018
 Cuacuba ribeira Prete &amp; Brescovit, 2020</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prete, Cizauskas &amp; Brescovit, 2018 : Three new species of the spider genus Plato and the new genus Cuacuba from caves of the states of Pará and Minas Gerais, Brazil (Araneae, Theridiosomatidae). ZooKeys, no 753, p. 107-162 (texte intégral).</t>
         </is>
